--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotr Kupczyk\Mój folder\Studia\Informatyczna techniczna\Praca magisterska\Model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CABE3F1-C755-492A-9CF6-458289E2331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EF345D-C6F5-407B-BE3B-447981BA936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{B3A0DE45-8C9D-47FA-AE47-7FBC4D0760BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A0DE45-8C9D-47FA-AE47-7FBC4D0760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Data" sheetId="1" r:id="rId1"/>
@@ -712,19 +712,21 @@
   <dimension ref="A1:M1302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="12" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="12" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="7" customWidth="1"/>
-    <col min="3" max="10" width="8.77734375" style="7"/>
+    <col min="3" max="8" width="8.77734375" style="7"/>
+    <col min="9" max="9" width="7.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="7"/>
     <col min="11" max="11" width="20.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="32" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" style="1"/>
     <col min="15" max="15" width="9.109375" style="1" bestFit="1" customWidth="1"/>
